--- a/data/trans_orig/IP31AA_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{13611873-CAEB-41A8-A715-500723BB8BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E27E7A6-A924-4635-A892-AFE509B08244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{5226D1CA-CA9F-4B92-891F-0E117F23AA27}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1D9C6A-4ED9-466E-91E1-4EE013E01970}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -101,55 +101,55 @@
     <t>49,18%</t>
   </si>
   <si>
-    <t>36,72%</t>
-  </si>
-  <si>
-    <t>61,22%</t>
+    <t>37,62%</t>
+  </si>
+  <si>
+    <t>60,87%</t>
   </si>
   <si>
     <t>43,93%</t>
   </si>
   <si>
-    <t>29,87%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
+    <t>31,95%</t>
+  </si>
+  <si>
+    <t>58,25%</t>
   </si>
   <si>
     <t>46,64%</t>
   </si>
   <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>55,67%</t>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>56,72%</t>
   </si>
   <si>
     <t>50,82%</t>
   </si>
   <si>
-    <t>38,78%</t>
-  </si>
-  <si>
-    <t>63,28%</t>
+    <t>39,13%</t>
+  </si>
+  <si>
+    <t>62,38%</t>
   </si>
   <si>
     <t>56,07%</t>
   </si>
   <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>70,13%</t>
+    <t>41,75%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
   </si>
   <si>
     <t>53,36%</t>
   </si>
   <si>
-    <t>44,33%</t>
-  </si>
-  <si>
-    <t>62,24%</t>
+    <t>43,28%</t>
+  </si>
+  <si>
+    <t>61,85%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -158,7 +158,7 @@
     <t>34,06%</t>
   </si>
   <si>
-    <t>29,52%</t>
+    <t>30,2%</t>
   </si>
   <si>
     <t>38,28%</t>
@@ -167,19 +167,19 @@
     <t>30,53%</t>
   </si>
   <si>
-    <t>26,8%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>36,54%</t>
   </si>
   <si>
     <t>32,37%</t>
   </si>
   <si>
-    <t>29,54%</t>
-  </si>
-  <si>
-    <t>35,37%</t>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>35,66%</t>
   </si>
   <si>
     <t>65,94%</t>
@@ -188,25 +188,25 @@
     <t>61,72%</t>
   </si>
   <si>
-    <t>70,48%</t>
+    <t>69,8%</t>
   </si>
   <si>
     <t>69,47%</t>
   </si>
   <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>73,2%</t>
+    <t>63,46%</t>
+  </si>
+  <si>
+    <t>73,38%</t>
   </si>
   <si>
     <t>67,63%</t>
   </si>
   <si>
-    <t>64,63%</t>
-  </si>
-  <si>
-    <t>70,46%</t>
+    <t>64,34%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -215,61 +215,61 @@
     <t>29,67%</t>
   </si>
   <si>
-    <t>23,7%</t>
-  </si>
-  <si>
-    <t>35,72%</t>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>36,1%</t>
   </si>
   <si>
     <t>28,72%</t>
   </si>
   <si>
-    <t>23,26%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
+    <t>22,53%</t>
+  </si>
+  <si>
+    <t>35,21%</t>
   </si>
   <si>
     <t>29,23%</t>
   </si>
   <si>
-    <t>24,72%</t>
-  </si>
-  <si>
-    <t>33,5%</t>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>33,72%</t>
   </si>
   <si>
     <t>70,33%</t>
   </si>
   <si>
-    <t>64,28%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
+    <t>63,9%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
   </si>
   <si>
     <t>71,28%</t>
   </si>
   <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
+    <t>64,79%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
   </si>
   <si>
     <t>70,77%</t>
   </si>
   <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
+    <t>66,28%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
   </si>
   <si>
     <t>34,11%</t>
   </si>
   <si>
-    <t>30,97%</t>
+    <t>30,96%</t>
   </si>
   <si>
     <t>37,73%</t>
@@ -278,19 +278,19 @@
     <t>31,09%</t>
   </si>
   <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
+    <t>27,9%</t>
+  </si>
+  <si>
+    <t>34,63%</t>
   </si>
   <si>
     <t>32,68%</t>
   </si>
   <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>35,16%</t>
+    <t>30,27%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
   </si>
   <si>
     <t>65,89%</t>
@@ -299,25 +299,25 @@
     <t>62,27%</t>
   </si>
   <si>
-    <t>69,03%</t>
+    <t>69,04%</t>
   </si>
   <si>
     <t>68,91%</t>
   </si>
   <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
+    <t>65,37%</t>
+  </si>
+  <si>
+    <t>72,1%</t>
   </si>
   <si>
     <t>67,32%</t>
   </si>
   <si>
-    <t>64,84%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>69,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4BB909C-5010-4D85-841B-08C805D1B941}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645C07C-3829-46F1-8994-4705FDE3DABE}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP31AA_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP31AA_R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E27E7A6-A924-4635-A892-AFE509B08244}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9960EE5A-5FF7-47D8-9ECF-8C9905453F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{BA1D9C6A-4ED9-466E-91E1-4EE013E01970}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{8678885E-7AB4-4A84-A15B-0D9BF8A0662C}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si se cepillan los dientes una vez o ninguna vez al día en 2023 (Tasa respuesta: 95,99%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -65,259 +65,238 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>46,43%</t>
+  </si>
+  <si>
+    <t>30,49%</t>
+  </si>
+  <si>
+    <t>65,72%</t>
+  </si>
+  <si>
+    <t>50,16%</t>
+  </si>
+  <si>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>38,79%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>53,57%</t>
+  </si>
+  <si>
+    <t>34,28%</t>
+  </si>
+  <si>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>61,21%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>37,62%</t>
-  </si>
-  <si>
-    <t>60,87%</t>
-  </si>
-  <si>
-    <t>43,93%</t>
-  </si>
-  <si>
-    <t>31,95%</t>
-  </si>
-  <si>
-    <t>58,25%</t>
-  </si>
-  <si>
-    <t>46,64%</t>
-  </si>
-  <si>
-    <t>38,15%</t>
-  </si>
-  <si>
-    <t>56,72%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>39,13%</t>
-  </si>
-  <si>
-    <t>62,38%</t>
-  </si>
-  <si>
-    <t>56,07%</t>
-  </si>
-  <si>
-    <t>41,75%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>53,36%</t>
-  </si>
-  <si>
-    <t>43,28%</t>
-  </si>
-  <si>
-    <t>61,85%</t>
-  </si>
-  <si>
     <t>Secundarios</t>
   </si>
   <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>36,54%</t>
-  </si>
-  <si>
-    <t>32,37%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>35,66%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>63,46%</t>
-  </si>
-  <si>
-    <t>73,38%</t>
-  </si>
-  <si>
-    <t>67,63%</t>
-  </si>
-  <si>
-    <t>64,34%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>35,13%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>39,94%</t>
+  </si>
+  <si>
+    <t>34,57%</t>
+  </si>
+  <si>
+    <t>31,03%</t>
+  </si>
+  <si>
+    <t>41,13%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
+  </si>
+  <si>
+    <t>71,71%</t>
+  </si>
+  <si>
+    <t>64,87%</t>
+  </si>
+  <si>
+    <t>60,06%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>65,43%</t>
+  </si>
+  <si>
+    <t>58,87%</t>
+  </si>
+  <si>
+    <t>68,97%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>29,67%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>36,1%</t>
-  </si>
-  <si>
-    <t>28,72%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>35,21%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>33,72%</t>
-  </si>
-  <si>
-    <t>70,33%</t>
-  </si>
-  <si>
-    <t>63,9%</t>
-  </si>
-  <si>
-    <t>76,23%</t>
-  </si>
-  <si>
-    <t>71,28%</t>
-  </si>
-  <si>
-    <t>64,79%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>70,77%</t>
-  </si>
-  <si>
-    <t>66,28%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>34,11%</t>
-  </si>
-  <si>
-    <t>30,96%</t>
-  </si>
-  <si>
-    <t>37,73%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>27,9%</t>
-  </si>
-  <si>
-    <t>34,63%</t>
-  </si>
-  <si>
-    <t>32,68%</t>
-  </si>
-  <si>
-    <t>30,27%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>65,89%</t>
-  </si>
-  <si>
-    <t>62,27%</t>
-  </si>
-  <si>
-    <t>69,04%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>65,37%</t>
-  </si>
-  <si>
-    <t>72,1%</t>
-  </si>
-  <si>
-    <t>67,32%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>69,73%</t>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>35,0%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>24,75%</t>
+  </si>
+  <si>
+    <t>36,91%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>65,0%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
+  </si>
+  <si>
+    <t>69,81%</t>
+  </si>
+  <si>
+    <t>63,09%</t>
+  </si>
+  <si>
+    <t>75,25%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>33,92%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>43,64%</t>
+  </si>
+  <si>
+    <t>35,04%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>38,9%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>66,08%</t>
+  </si>
+  <si>
+    <t>56,36%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,96%</t>
+  </si>
+  <si>
+    <t>61,1%</t>
+  </si>
+  <si>
+    <t>68,2%</t>
+  </si>
+  <si>
+    <t>65,48%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>68,39%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -732,8 +711,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5645C07C-3829-46F1-8994-4705FDE3DABE}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E3C2DA-CA69-46FF-85A0-67BEFF700D54}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -850,96 +829,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="D4" s="7">
+        <v>24553</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>27725</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>52278</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>35</v>
+      </c>
+      <c r="D5" s="7">
+        <v>28330</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>27546</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>70</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>55876</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -948,151 +931,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D6" s="7">
+        <v>52883</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>55271</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>140</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>108154</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>195</v>
+      </c>
+      <c r="D7" s="7">
+        <v>152790</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7">
+        <v>236</v>
+      </c>
+      <c r="I7" s="7">
+        <v>176738</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="M7" s="7">
+        <v>431</v>
+      </c>
+      <c r="N7" s="7">
+        <v>329528</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="7">
-        <v>25916</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="7">
-        <v>31</v>
-      </c>
-      <c r="I7" s="7">
-        <v>21671</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="M7" s="7">
-        <v>70</v>
-      </c>
-      <c r="N7" s="7">
-        <v>47586</v>
-      </c>
-      <c r="O7" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>27</v>
-      </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>35</v>
+        <v>426</v>
       </c>
       <c r="D8" s="7">
-        <v>26781</v>
+        <v>297424</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>35</v>
+        <v>392</v>
       </c>
       <c r="I8" s="7">
-        <v>27661</v>
+        <v>326405</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>818</v>
       </c>
       <c r="N8" s="7">
-        <v>54443</v>
+        <v>623829</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1101,153 +1086,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>74</v>
+        <v>621</v>
       </c>
       <c r="D9" s="7">
-        <v>52697</v>
+        <v>450214</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>66</v>
+        <v>628</v>
       </c>
       <c r="I9" s="7">
-        <v>49332</v>
+        <v>503143</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>140</v>
+        <v>1249</v>
       </c>
       <c r="N9" s="7">
-        <v>102029</v>
+        <v>953357</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>236</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>163382</v>
+        <v>42384</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>195</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7">
-        <v>134202</v>
+        <v>54685</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>431</v>
+        <v>135</v>
       </c>
       <c r="N10" s="7">
-        <v>297584</v>
+        <v>97069</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>392</v>
+        <v>157</v>
       </c>
       <c r="D11" s="7">
-        <v>316330</v>
+        <v>102301</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>426</v>
+        <v>161</v>
       </c>
       <c r="I11" s="7">
-        <v>305434</v>
+        <v>126454</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>818</v>
+        <v>318</v>
       </c>
       <c r="N11" s="7">
-        <v>621764</v>
+        <v>228755</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1256,153 +1241,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>628</v>
+        <v>220</v>
       </c>
       <c r="D12" s="7">
-        <v>479712</v>
+        <v>144685</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>621</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>439636</v>
+        <v>181139</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1249</v>
+        <v>453</v>
       </c>
       <c r="N12" s="7">
-        <v>919348</v>
+        <v>325824</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>289</v>
+      </c>
+      <c r="D13" s="7">
+        <v>219727</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
+        <v>347</v>
+      </c>
+      <c r="I13" s="7">
+        <v>259149</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="7">
-        <v>51172</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="H13" s="7">
-        <v>63</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42067</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>61</v>
-      </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>135</v>
+        <v>636</v>
       </c>
       <c r="N13" s="7">
-        <v>93239</v>
+        <v>478876</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>161</v>
+        <v>618</v>
       </c>
       <c r="D14" s="7">
-        <v>121322</v>
+        <v>428055</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>157</v>
+        <v>588</v>
       </c>
       <c r="I14" s="7">
-        <v>104422</v>
+        <v>480404</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>318</v>
+        <v>1206</v>
       </c>
       <c r="N14" s="7">
-        <v>225744</v>
+        <v>908459</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1411,216 +1396,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>233</v>
+        <v>907</v>
       </c>
       <c r="D15" s="7">
-        <v>172494</v>
+        <v>647782</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>220</v>
+        <v>935</v>
       </c>
       <c r="I15" s="7">
-        <v>146489</v>
+        <v>739553</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>453</v>
+        <v>1842</v>
       </c>
       <c r="N15" s="7">
-        <v>318983</v>
+        <v>1387335</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>347</v>
-      </c>
-      <c r="D16" s="7">
-        <v>240470</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>289</v>
-      </c>
-      <c r="I16" s="7">
-        <v>197940</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>636</v>
-      </c>
-      <c r="N16" s="7">
-        <v>438410</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>588</v>
-      </c>
-      <c r="D17" s="7">
-        <v>464434</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>619</v>
-      </c>
-      <c r="I17" s="7">
-        <v>438688</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1207</v>
-      </c>
-      <c r="N17" s="7">
-        <v>903121</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>935</v>
-      </c>
-      <c r="D18" s="7">
-        <v>704904</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>908</v>
-      </c>
-      <c r="I18" s="7">
-        <v>636628</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1843</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1341531</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
